--- a/その他/画面遷移図.xlsx
+++ b/その他/画面遷移図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,16 +101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>131118</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>239976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,46 +127,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="4122965"/>
+          <a:off x="435429" y="3986894"/>
           <a:ext cx="10885714" cy="3600939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685801" y="257175"/>
-          <a:ext cx="10972800" cy="3038899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -196,7 +158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -216,19 +178,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>495</xdr:rowOff>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="925286" y="12341678"/>
+          <a:ext cx="8392886" cy="6123710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>336927</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>46436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -241,46 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="15316200"/>
-          <a:ext cx="8327572" cy="5715495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228069</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>196114</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="852714" y="11357428"/>
-          <a:ext cx="7321926" cy="3352972"/>
+          <a:off x="13906500" y="7951107"/>
+          <a:ext cx="7521498" cy="3606972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -310,7 +272,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -319,6 +281,44 @@
         <a:xfrm>
           <a:off x="12151179" y="244928"/>
           <a:ext cx="12336597" cy="6668431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>453401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="244929" y="340178"/>
+          <a:ext cx="11774543" cy="3153215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
